--- a/XCustPr/doc/60-12-28/PO008_UNIT_TEST_RESULT_new.xlsx
+++ b/XCustPr/doc/60-12-28/PO008_UNIT_TEST_RESULT_new.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_ICE_2016\RD\00_PMO_Templates (13-May)\70-Customization\73-Unit Test\PO008\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\ice\XCustPr\XCustPr\doc\60-12-28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CASE" sheetId="11" state="hidden" r:id="rId1"/>
@@ -5845,20 +5845,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5897,7 +5897,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5905,12 +5905,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5956,6 +5956,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6040,7 +6052,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
@@ -6048,7 +6060,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6099,6 +6111,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6608,24 +6624,24 @@
       <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.3984375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="31.296875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="59.59765625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="23.09765625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="18.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.8984375" style="25"/>
+    <col min="1" max="1" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="59.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>271</v>
       </c>
@@ -6648,7 +6664,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -6663,7 +6679,7 @@
       </c>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21" t="s">
@@ -6674,7 +6690,7 @@
       <c r="F4" s="21"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
@@ -6685,7 +6701,7 @@
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
@@ -6696,7 +6712,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
@@ -6707,7 +6723,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
@@ -6718,7 +6734,7 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
@@ -6729,7 +6745,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -6742,7 +6758,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -6753,7 +6769,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>4</v>
       </c>
@@ -6778,7 +6794,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6794,24 +6810,24 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="83.09765625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="25" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="83.140625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="25" customWidth="1"/>
     <col min="6" max="6" width="11" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.09765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="8.8984375" style="25"/>
+    <col min="7" max="7" width="9.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -6840,7 +6856,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="38.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="21">
         <v>2</v>
@@ -6863,7 +6879,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21"/>
       <c r="B3" s="21">
         <v>3</v>
@@ -6884,7 +6900,7 @@
       </c>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="21">
         <v>4</v>
@@ -6905,7 +6921,7 @@
       </c>
       <c r="I4" s="21"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="21">
         <v>5</v>
@@ -6926,7 +6942,7 @@
       </c>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="21">
         <v>6</v>
@@ -6947,7 +6963,7 @@
       </c>
       <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="21">
         <v>7</v>
@@ -6968,7 +6984,7 @@
       </c>
       <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="21">
         <v>8</v>
@@ -6989,7 +7005,7 @@
       </c>
       <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="21">
         <v>9</v>
@@ -7010,7 +7026,7 @@
       </c>
       <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="33"/>
       <c r="B10" s="33">
         <v>10</v>
@@ -7031,7 +7047,7 @@
       </c>
       <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" ht="26.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="21">
         <v>11</v>
@@ -7052,7 +7068,7 @@
       </c>
       <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="33"/>
       <c r="B12" s="33">
         <v>12</v>
@@ -7073,7 +7089,7 @@
       </c>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="33">
         <v>13</v>
@@ -7094,7 +7110,7 @@
       </c>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="33">
         <v>15</v>
@@ -7115,7 +7131,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="33">
         <v>17</v>
@@ -7134,7 +7150,7 @@
       </c>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="33">
         <v>19</v>
@@ -7153,13 +7169,13 @@
       </c>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="33">
         <v>21</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="37" t="s">
         <v>315</v>
       </c>
       <c r="E17" s="33"/>
@@ -7174,7 +7190,7 @@
       </c>
       <c r="I17" s="21"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="33">
         <v>22</v>
@@ -7195,7 +7211,7 @@
       </c>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="33">
         <v>23</v>
@@ -7216,7 +7232,7 @@
       </c>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="33">
         <v>24</v>
@@ -7239,7 +7255,7 @@
       </c>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="33">
         <v>25</v>
@@ -7262,7 +7278,7 @@
       </c>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="33">
         <v>26</v>
@@ -7283,7 +7299,7 @@
       </c>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="33">
         <v>27</v>
@@ -7304,7 +7320,7 @@
       </c>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="32"/>
@@ -7319,7 +7335,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="32"/>
@@ -7334,7 +7350,7 @@
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="32"/>
@@ -7349,13 +7365,13 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="33">
         <v>29</v>
       </c>
       <c r="C27" s="34"/>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="36" t="s">
         <v>329</v>
       </c>
       <c r="E27" s="35"/>
@@ -7369,13 +7385,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="33">
         <v>30</v>
       </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="36" t="s">
         <v>330</v>
       </c>
       <c r="E28" s="35"/>
@@ -7410,7 +7426,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7425,7 +7441,7 @@
       <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7440,7 +7456,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7455,7 +7471,7 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7470,100 +7486,100 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.8984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.09765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.09765625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.8984375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="35.3984375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.8984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.09765625" customWidth="1"/>
-    <col min="62" max="62" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="69" max="72" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="76" max="79" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="80" max="88" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="90" max="98" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="100" max="108" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="32.8984375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.140625" customWidth="1"/>
+    <col min="62" max="62" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="68" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="79" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="80" max="88" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="98" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="108" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="22" bestFit="1" customWidth="1"/>
     <col min="118" max="118" width="19" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:126" x14ac:dyDescent="0.25">
@@ -7946,7 +7962,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:126" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:126" ht="36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18</v>
       </c>
@@ -9196,52 +9212,52 @@
       <selection activeCell="CE30" sqref="CE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.69921875" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="32" width="26.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="42" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="62" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="64" max="72" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="74" max="82" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="85" max="93" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="94" max="114" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="42" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="62" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="72" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="82" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="93" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="114" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="10" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.8984375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:120" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
